--- a/app/trade_log.xlsx
+++ b/app/trade_log.xlsx
@@ -1232,7 +1232,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1347,6 +1347,110 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>Consider Buying</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SPY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>607.8099975585938</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>55</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Neutral Zone: Hold Phase</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>142.4400024414062</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
+        <v>55</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Neutral Zone: Hold Phase</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SPY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>607.8099975585938</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" t="n">
+        <v>55</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Neutral Zone: Hold Phase</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hold</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>QQQ</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>526.47998046875</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" t="n">
+        <v>55</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Neutral Zone: Hold Phase</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Hold</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1437,6 +1541,74 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SPY</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12/06</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>12/06</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SPY</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>12/06</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>QQQ</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12/06</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
